--- a/Excel_Progress_Tracker.xlsx
+++ b/Excel_Progress_Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITY\1SEM\EssentialinDS\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{291B326D-EC31-45C1-816D-96220F54DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749FE6A-EBFB-4DB2-93DB-D2008182EA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Phase</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -462,19 +465,19 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="49.36328125" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,12 +494,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -508,12 +511,12 @@
         <v>45964</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -525,7 +528,7 @@
         <v>45968</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -542,7 +545,7 @@
         <v>45971</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -559,7 +562,7 @@
         <v>45975</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -576,7 +579,7 @@
         <v>45978</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
